--- a/aidants_connect_web/fixtures/import-aidants/correct-files/implicit-responsables.xlsx
+++ b/aidants_connect_web/fixtures/import-aidants/correct-files/implicit-responsables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahr/Code/Aidants_Connect/aidants_connect_web/fixtures/import-aidants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahr/Code/Aidants_Connect/aidants_connect_web/fixtures/import-aidants/correct-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7BF6FA-6DE6-744E-BD04-AF30EA21463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366DF3D-876D-664B-A734-474907150F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="560" windowWidth="27860" windowHeight="17440" xr2:uid="{BEEF2C64-65BD-4D43-B9B0-F70D0F512F29}"/>
   </bookViews>
@@ -135,9 +135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -457,7 +456,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,17 +489,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4444</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>46578</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -513,11 +512,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3">
+        <v>4444</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -533,11 +532,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4">
+        <v>4444</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -550,17 +549,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4444</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>46578</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
